--- a/EntrySpreadsheet.xlsx
+++ b/EntrySpreadsheet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Generation Type</t>
   </si>
@@ -35,13 +35,16 @@
     <t>Longitude</t>
   </si>
   <si>
-    <t>Turbine Size</t>
-  </si>
-  <si>
     <t>Number of Turbines</t>
   </si>
   <si>
-    <t>Installed Capacity</t>
+    <t>Turbine Size (MW)</t>
+  </si>
+  <si>
+    <t>Installed Capacity (MW)</t>
+  </si>
+  <si>
+    <t>Operational</t>
   </si>
 </sst>
 </file>
@@ -359,21 +362,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -384,13 +388,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
